--- a/materials.xlsx
+++ b/materials.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve">Units</t>
   </si>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">cm</t>
   </si>
   <si>
-    <t xml:space="preserve">Material</t>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -76,7 +79,16 @@
     <t xml:space="preserve">114.3 x 10 CHS - S355</t>
   </si>
   <si>
+    <t xml:space="preserve">Steel</t>
+  </si>
+  <si>
     <t xml:space="preserve">254x343x63 - T - S355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100x100 C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timber</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -117,13 +129,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,16 +172,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,48 +202,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -277,69 +279,116 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>7850</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>3.94</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="2" t="n">
         <v>57.15</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="n">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>7850</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>79.7</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>2190</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>8980</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <v>8.85</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">10*10</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">(10*10^3)/12</f>
+        <v>833.333333333333</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">H5</f>
+        <v>833.333333333333</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
